--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3265254.463175775</v>
+        <v>3267014.993478561</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C2" t="n">
-        <v>68.116939187661</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663197</v>
+        <v>68.11693918766126</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>89.5022202406563</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>165.0765230314857</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>52.21594625443403</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>126.3118399344514</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>282.8784281994853</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425909</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>25.63576095801716</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>14.5693990499478</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304049</v>
+        <v>30.24193919304042</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.811433473811581</v>
+        <v>9.811433473812427</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>281.267570135631</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>18.32574259788905</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1223,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.27697994470579</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>133.6773314608759</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>31.68046530976805</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>9.854692234071585</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206815</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>74.95497330697962</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>34.69211367164822</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>70.58974991479215</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>132.7328787290201</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>180.1003471321691</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>126.1348013633905</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206837</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>135.3135037226517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179411</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.15319674220996</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>185.6920487814947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>129.5380597272477</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103.9826713767707</v>
+        <v>224.59746731481</v>
       </c>
       <c r="C2" t="n">
         <v>35.17768229832527</v>
@@ -4318,64 +4318,64 @@
         <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912179</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L2" t="n">
-        <v>191.874309407919</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602026</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262245</v>
+        <v>672.242026426225</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262245</v>
+        <v>672.242026426225</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262245</v>
+        <v>672.242026426225</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262245</v>
+        <v>672.242026426225</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097399</v>
+        <v>603.4370373477793</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097399</v>
+        <v>603.4370373477793</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097399</v>
+        <v>603.4370373477793</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.4024563932553</v>
+        <v>414.0172523312947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>320.7740599518761</v>
+        <v>659.6960655939093</v>
       </c>
       <c r="C3" t="n">
-        <v>320.7740599518761</v>
+        <v>485.2430363127824</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>336.3086266515311</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017056</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264271</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264271</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264271</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264271</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V3" t="n">
-        <v>510.1938449683607</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W3" t="n">
-        <v>320.7740599518761</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="X3" t="n">
-        <v>320.7740599518761</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Y3" t="n">
-        <v>320.7740599518761</v>
+        <v>750.1023486652794</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230163</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170695</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396302</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.3500712064169</v>
+        <v>1129.4436409102</v>
       </c>
       <c r="C5" t="n">
-        <v>964.3500712064169</v>
+        <v>1129.4436409102</v>
       </c>
       <c r="D5" t="n">
-        <v>964.3500712064169</v>
+        <v>1129.4436409102</v>
       </c>
       <c r="E5" t="n">
-        <v>578.5618186081726</v>
+        <v>743.6553883119559</v>
       </c>
       <c r="F5" t="n">
-        <v>450.9741015026662</v>
+        <v>736.7098875627524</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675769</v>
+        <v>320.2938423768439</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017217</v>
+        <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746976</v>
+        <v>277.9807166746982</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030761</v>
+        <v>521.204941603077</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709179</v>
+        <v>823.5081935709192</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.41363507924</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332758</v>
+        <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837884</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540653</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540653</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540653</v>
+        <v>1516.043480974322</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540653</v>
+        <v>1516.043480974322</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540653</v>
+        <v>1516.043480974322</v>
       </c>
       <c r="W5" t="n">
-        <v>1350.949911270539</v>
+        <v>1516.043480974322</v>
       </c>
       <c r="X5" t="n">
-        <v>1350.949911270539</v>
+        <v>1516.043480974322</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.949911270539</v>
+        <v>1516.043480974322</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.55805631675769</v>
+        <v>357.945495259136</v>
       </c>
       <c r="C6" t="n">
-        <v>34.55805631675769</v>
+        <v>183.492465978009</v>
       </c>
       <c r="D6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787535</v>
+        <v>61.66788464787551</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806064</v>
+        <v>186.1577239806067</v>
       </c>
       <c r="L6" t="n">
-        <v>399.872217118998</v>
+        <v>399.8722171189986</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223503</v>
+        <v>668.6238185223513</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352482</v>
+        <v>958.8971200352496</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639509</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1419.983952868149</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="S6" t="n">
-        <v>1277.193060863744</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="T6" t="n">
-        <v>1081.652442583499</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="U6" t="n">
-        <v>853.5373005390552</v>
+        <v>1431.162096209635</v>
       </c>
       <c r="V6" t="n">
-        <v>618.3851923073125</v>
+        <v>1196.009987977892</v>
       </c>
       <c r="W6" t="n">
-        <v>618.3851923073125</v>
+        <v>941.7726312496907</v>
       </c>
       <c r="X6" t="n">
-        <v>410.5336921017796</v>
+        <v>733.9211310441578</v>
       </c>
       <c r="Y6" t="n">
-        <v>202.7733933368257</v>
+        <v>526.160832279204</v>
       </c>
     </row>
     <row r="7">
@@ -4710,64 +4710,64 @@
         <v>359.9085107233647</v>
       </c>
       <c r="E7" t="n">
-        <v>211.9954171409716</v>
+        <v>211.9954171409715</v>
       </c>
       <c r="F7" t="n">
-        <v>65.10546964306121</v>
+        <v>65.10546964306118</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306121</v>
+        <v>65.10546964306118</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306121</v>
+        <v>65.10546964306118</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306121</v>
+        <v>65.10546964306118</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574694</v>
+        <v>64.24066662574708</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584116</v>
+        <v>132.1299861584119</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347973</v>
+        <v>206.9680378347977</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195368</v>
+        <v>287.8841338195373</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934719</v>
+        <v>342.3101561934726</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="Y7" t="n">
         <v>359.9085107233647</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>334.4233539899541</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="C8" t="n">
-        <v>334.4233539899541</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="D8" t="n">
-        <v>334.4233539899541</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="E8" t="n">
-        <v>334.4233539899541</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
-        <v>327.4778532407507</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904652</v>
+        <v>2149.948975795674</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904652</v>
+        <v>1896.341811458183</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>1565.278924114613</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290967</v>
+        <v>1212.510268844499</v>
       </c>
       <c r="X8" t="n">
-        <v>1111.162526029888</v>
+        <v>839.0445105834187</v>
       </c>
       <c r="Y8" t="n">
-        <v>721.0231940540759</v>
+        <v>448.905178607607</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>525.9940904859268</v>
+        <v>693.0104463829871</v>
       </c>
       <c r="C9" t="n">
-        <v>351.5410612047998</v>
+        <v>518.5574171018601</v>
       </c>
       <c r="D9" t="n">
-        <v>202.6066515435485</v>
+        <v>369.6230074406088</v>
       </c>
       <c r="E9" t="n">
-        <v>43.36919653809305</v>
+        <v>210.3855524351533</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809305</v>
+        <v>63.8509944620383</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809305</v>
+        <v>63.8509944620383</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809305</v>
+        <v>63.8509944620383</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4901,34 +4901,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T9" t="n">
-        <v>1599.210691436426</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="U9" t="n">
-        <v>1599.210691436426</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="V9" t="n">
-        <v>1364.058583204683</v>
+        <v>1531.074939101743</v>
       </c>
       <c r="W9" t="n">
-        <v>1109.821226476482</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>901.9697262709487</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>694.2094275059949</v>
+        <v>861.2257834030552</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="C10" t="n">
-        <v>351.3531641126922</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D10" t="n">
-        <v>201.2365247003565</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E10" t="n">
-        <v>53.32343111796334</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1051.622995973711</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>882.686813045804</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>732.5701736334682</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>584.6570800510751</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>437.7671325531647</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>270.5710332680447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>128.8592021102428</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015258</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973711</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,28 +5272,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,13 +5366,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033211</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.4644740681603</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C16" t="n">
-        <v>465.5282911402533</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V16" t="n">
-        <v>1554.312238976908</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W16" t="n">
-        <v>1264.895068939947</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X16" t="n">
-        <v>1036.90551804193</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y16" t="n">
-        <v>816.1129388984</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,13 +5603,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2223.769289033211</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2267.47159895366</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,61 +5968,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6226,22 +6226,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6618,31 +6618,31 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6697,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6718,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,16 +6733,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6837,16 +6837,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,28 +6858,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2437.724555511392</v>
@@ -6916,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362695</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>779.6143379232838</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,55 +7308,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
         <v>2264.108249235165</v>
@@ -7374,10 +7374,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398594</v>
@@ -7444,16 +7444,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,7 +7487,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="44">
@@ -7642,43 +7642,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>631.7012443408906</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7848,10 +7848,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.57372264691733</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>119.4047645948079</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>106.084127257075</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>41.11201973523735</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>83.27114962944304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>134.8730892594346</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.29392045468958</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>701323.2088618132</v>
+        <v>701323.2088618131</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778555</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778551</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778548</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210056</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208451</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253127</v>
+        <v>270592.3620253132</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231929</v>
+        <v>115410.0540231922</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574265</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.9447285445</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881976</v>
+        <v>62913.63765881993</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197483</v>
+        <v>27875.25362197468</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189205</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
+        <v>16046.58397189194</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="N4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16046.58397189204</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161355</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936818</v>
+        <v>76435.73471936822</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187941.6748887335</v>
+        <v>-187941.6748887332</v>
       </c>
       <c r="C6" t="n">
-        <v>185305.0732068277</v>
+        <v>185305.0732068276</v>
       </c>
       <c r="D6" t="n">
-        <v>364125.4669098921</v>
+        <v>364125.4669098931</v>
       </c>
       <c r="E6" t="n">
-        <v>7472.239096584246</v>
+        <v>7784.880425505064</v>
       </c>
       <c r="F6" t="n">
-        <v>608915.4466708493</v>
+        <v>609228.0879997707</v>
       </c>
       <c r="G6" t="n">
-        <v>608915.4466708495</v>
+        <v>609228.0879997704</v>
       </c>
       <c r="H6" t="n">
-        <v>608915.4466708491</v>
+        <v>609228.0879997702</v>
       </c>
       <c r="I6" t="n">
-        <v>608915.4466708492</v>
+        <v>609228.0879997704</v>
       </c>
       <c r="J6" t="n">
-        <v>559850.5019423048</v>
+        <v>560163.1432712261</v>
       </c>
       <c r="K6" t="n">
-        <v>546001.8090120296</v>
+        <v>546314.4503409509</v>
       </c>
       <c r="L6" t="n">
-        <v>581040.1930488741</v>
+        <v>581352.8343777958</v>
       </c>
       <c r="M6" t="n">
-        <v>451769.0661192512</v>
+        <v>452081.7074481724</v>
       </c>
       <c r="N6" t="n">
-        <v>608915.4466708492</v>
+        <v>609228.0879997704</v>
       </c>
       <c r="O6" t="n">
-        <v>608915.4466708493</v>
+        <v>609228.0879997704</v>
       </c>
       <c r="P6" t="n">
-        <v>608915.4466708492</v>
+        <v>609228.0879997704</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950616</v>
+        <v>758.8996292950621</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>431.975703959471</v>
+        <v>431.9757039594716</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,31 +26807,31 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821573</v>
+        <v>210.4296883821577</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262255</v>
+        <v>94.81103524262187</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039894</v>
+        <v>514.2648358039897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931513</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="D4" t="n">
-        <v>110.139252766692</v>
+        <v>110.1392527666916</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734848</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,19 +27038,19 @@
         <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931513</v>
+        <v>244.450116793152</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666919</v>
+        <v>110.1392527666914</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734848</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931513</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766692</v>
+        <v>110.1392527666916</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734848</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971609</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
-        <v>297.1559525833466</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27399,7 +27399,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27438,7 +27438,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038152</v>
+        <v>259.6353192824736</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897339</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>77.03096340921104</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27517,10 +27517,10 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>67.72406411793952</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459988</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27593,7 +27593,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>234.0491352390163</v>
+        <v>234.049135239016</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>280.5642058072601</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>25.35182787198818</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760041</v>
+        <v>92.85788772760033</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425895</v>
       </c>
       <c r="S5" t="n">
         <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937515</v>
+        <v>43.32085084937511</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.6948453427308</v>
+        <v>44.33060630074787</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>211.2645915740513</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589155</v>
+        <v>36.91115760589146</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.7732198782832</v>
+        <v>208.7732198782824</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>130.6031647079957</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>189.7465152717148</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27943,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470353</v>
@@ -27952,7 +27952,7 @@
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>16.02248763434307</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>59.08588684988786</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>135.5663557888598</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>135.5663557888597</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.414636683656336e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31126,43 +31126,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085672</v>
+        <v>3.050852781085675</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429365</v>
+        <v>31.24454604429367</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286703</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520269</v>
+        <v>388.0799144520272</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511777</v>
+        <v>481.447450251178</v>
       </c>
       <c r="M5" t="n">
-        <v>535.70305339681</v>
+        <v>535.7030533968103</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610696</v>
+        <v>544.3712888610701</v>
       </c>
       <c r="O5" t="n">
-        <v>514.034371519149</v>
+        <v>514.0343715191493</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860964</v>
+        <v>438.7164434860967</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634656</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.643131009873</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898983</v>
+        <v>69.52130774898988</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920254</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868538</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062485</v>
+        <v>56.20152915062489</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475936</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316631</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721889</v>
+        <v>354.4276051721892</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658085</v>
+        <v>413.6002979658088</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468666</v>
+        <v>424.5470671468669</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374453</v>
+        <v>388.3776244374456</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587249</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547498</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3201880194772</v>
+        <v>30.32018801947723</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378881</v>
+        <v>6.579516597378886</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377985</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734532</v>
+        <v>41.15475366734535</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635562</v>
+        <v>96.75348224635569</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260801</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162531</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399138</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275348</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.5330748605471</v>
+        <v>61.53307486054715</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391201</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.8472594388308</v>
+        <v>5.847259438830805</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656351</v>
+        <v>0.07464586517656356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31530,10 +31530,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31542,22 +31542,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31609,19 +31609,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31630,10 +31630,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31679,22 +31679,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31706,13 +31706,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>604.7968300725076</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>466.5925882502531</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,25 +32314,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>466.5925882502531</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198405</v>
+        <v>77.89141170198423</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070464</v>
+        <v>167.9900634070466</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811904</v>
+        <v>245.6810352811908</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695373</v>
+        <v>305.3568201695376</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644787</v>
+        <v>314.9582252644792</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974622</v>
+        <v>283.9361600974626</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308268</v>
+        <v>207.4834477308272</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890161</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092694</v>
+        <v>27.38366498092705</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573041</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923147</v>
+        <v>215.873225392315</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437902</v>
+        <v>271.4662640437905</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635333</v>
+        <v>293.2053550635336</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930009</v>
+        <v>245.7813799930012</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729187</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872824</v>
+        <v>68.38629016872841</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554469</v>
+        <v>29.98243465554481</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501481</v>
+        <v>68.57507023501495</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230878</v>
+        <v>75.59399159230892</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761565</v>
+        <v>81.73343028761579</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569197</v>
+        <v>54.97578017569211</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235228</v>
+        <v>27.78676100235242</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35190,7 +35190,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35260,7 +35260,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35272,7 +35272,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>462.2005856280633</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>332.6181808359229</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>332.6181808359229</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
